--- a/biology/Zoologie/Diphyllobothriidea/Diphyllobothriidea.xlsx
+++ b/biology/Zoologie/Diphyllobothriidea/Diphyllobothriidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diphyllobothriidea sont un ordre de vers plats parasites de la classe des Cestodes (sous-classe des Eucestoda).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de l'ordre des Diphyllobothriidea sont des cestodes de taille moyenne à grande et dont les adultes se retrouvent dans les intestins des tétrapodes et le plus souvent des mammifères[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de l'ordre des Diphyllobothriidea sont des cestodes de taille moyenne à grande et dont les adultes se retrouvent dans les intestins des tétrapodes et le plus souvent des mammifères. 
 </t>
         </is>
       </c>
@@ -542,18 +556,90 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Diphyllobothriidea Kuchta (d), Scholz (d), Brabec (d) &amp; Bray (d), 2008[2],[1].
-Diphyllobothriidea a pour synonyme[2] Pseudophyllidea Carus, 1863.
-Liste des familles
-Selon la base de données World Register of Marine Species                               (22 février 2024)[2], l'ordre des Diphyllobothriidea regroupe les familles suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Diphyllobothriidea Kuchta (d), Scholz (d), Brabec (d) &amp; Bray (d), 2008,.
+Diphyllobothriidea a pour synonyme Pseudophyllidea Carus, 1863.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diphyllobothriidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothriidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (22 février 2024), l'ordre des Diphyllobothriidea regroupe les familles suivantes :
 la famille des Cephalochlamydidae Yamaguti, 1959
 la famille des Diphyllobothriidae Lühe, 1910
 la famille des Solenophoridae Monticelli &amp; Crety, 1891
 La famille des Scyphocephalidae Freze, 1974 est un synonyme de Solenophoridae Monticelli &amp; Crety, 1891.
-Publication originale
-(en) Roman Kuchta, Tomáš Scholz, Jan Brabec et Rodney Alan Bray, « Suppression of the tapeworm order Pseudophyllidea (Platyhelminthes: Eucestoda) and the proposal of two new orders, Bothriocephalidea and Diphyllobothriidea », International Journal for Parasitology, Royaume-Uni, vol. 38, no 1,‎ janvier 2008, p. 49-55 (ISSN 0020-7519, e-ISSN 1879-0135, DOI 10.1016/j.ijpara.2007.08.005, lire en ligne, consulté le 22 février 2024). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diphyllobothriidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothriidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Roman Kuchta, Tomáš Scholz, Jan Brabec et Rodney Alan Bray, « Suppression of the tapeworm order Pseudophyllidea (Platyhelminthes: Eucestoda) and the proposal of two new orders, Bothriocephalidea and Diphyllobothriidea », International Journal for Parasitology, Royaume-Uni, vol. 38, no 1,‎ janvier 2008, p. 49-55 (ISSN 0020-7519, e-ISSN 1879-0135, DOI 10.1016/j.ijpara.2007.08.005, lire en ligne, consulté le 22 février 2024). 
 </t>
         </is>
       </c>
